--- a/artfynd/A 54241-2025 artfynd.xlsx
+++ b/artfynd/A 54241-2025 artfynd.xlsx
@@ -3547,7 +3547,7 @@
         <v>130112479</v>
       </c>
       <c r="B27" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 54241-2025 artfynd.xlsx
+++ b/artfynd/A 54241-2025 artfynd.xlsx
@@ -1721,7 +1721,7 @@
         <v>129944831</v>
       </c>
       <c r="B11" t="n">
-        <v>57985</v>
+        <v>58043</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>129944867</v>
       </c>
       <c r="B14" t="n">
-        <v>57985</v>
+        <v>58043</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/artfynd/A 54241-2025 artfynd.xlsx
+++ b/artfynd/A 54241-2025 artfynd.xlsx
@@ -1376,7 +1376,7 @@
         <v>129944527</v>
       </c>
       <c r="B8" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>129944905</v>
       </c>
       <c r="B10" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>129945020</v>
       </c>
       <c r="B12" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>129944637</v>
       </c>
       <c r="B15" t="n">
-        <v>57823</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>130116665</v>
       </c>
       <c r="B16" t="n">
-        <v>57849</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>130116663</v>
       </c>
       <c r="B20" t="n">
-        <v>57849</v>
+        <v>57881</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>130116664</v>
       </c>
       <c r="B21" t="n">
-        <v>57849</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>130116662</v>
       </c>
       <c r="B22" t="n">
-        <v>57849</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/artfynd/A 54241-2025 artfynd.xlsx
+++ b/artfynd/A 54241-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,6 +3659,126 @@
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131307610</v>
+      </c>
+      <c r="B28" t="n">
+        <v>99015</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Bäckmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>521051</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6625617</v>
+      </c>
+      <c r="S28" t="n">
+        <v>78</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Lindesberg</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ramsberg</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>T-Lin-0017</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Lotta Sörman</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54241-2025 artfynd.xlsx
+++ b/artfynd/A 54241-2025 artfynd.xlsx
@@ -3664,7 +3664,7 @@
         <v>131307610</v>
       </c>
       <c r="B28" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
